--- a/document/excel_upload_자료/TBL_EXP_VALUATION_EXPECT_YEAR.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_VALUATION_EXPECT_YEAR.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059BCC4E-EEDA-4495-A3EF-435ABF2368D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E5D7E-8146-426C-8D4F-F7B861AC742A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="85">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,472 +77,307 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>25FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_EXPECT_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경과기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(46세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본(순자산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당기순이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액증가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순이익율(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업권 평가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주당 순손익가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주당 순자산가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주당 주식가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가치 상승률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*미처분이익잉여금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당해년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(47세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대표이사 나이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20년 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,777원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,725원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,956원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.77억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(50세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,353원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139,864원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>296,157원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>177.69억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(52세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,407,493원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>515,543원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,050,713원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>630.43억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(54세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,948,216원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,836,291원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,703,446원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2222.07억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(57세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,617,635원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,157,435원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,433,555원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14660.13억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(62세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74,585,818원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,085,196원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,358,569원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36231.34억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(67세)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,758,890원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118,387,211원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,810,218원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100686.13억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들여쓰기 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BUYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YEAR</t>
-  </si>
-  <si>
-    <t>25FC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_EXP_VALUATION_EXPECT_YEAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ITEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEPTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ORDER_NO</t>
-  </si>
-  <si>
-    <t>경과기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준년도</t>
-  </si>
-  <si>
-    <t>기준년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(46세)</t>
-  </si>
-  <si>
-    <t>(46세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자산</t>
-  </si>
-  <si>
-    <t>자산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부채</t>
-  </si>
-  <si>
-    <t>부채</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자본(순자산)</t>
-  </si>
-  <si>
-    <t>자본(순자산)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출액</t>
-  </si>
-  <si>
-    <t>매출액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당기순이익</t>
-  </si>
-  <si>
-    <t>당기순이익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출액증가율</t>
-  </si>
-  <si>
-    <t>매출액증가율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순이익율(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영업권 평가액</t>
-  </si>
-  <si>
-    <t>영업권 평가액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주당 순손익가치</t>
-  </si>
-  <si>
-    <t>1주당 순손익가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주당 순자산가치</t>
-  </si>
-  <si>
-    <t>1주당 순자산가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주당 주식가액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업가치</t>
-  </si>
-  <si>
-    <t>기업가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업가치 상승률</t>
-  </si>
-  <si>
-    <t>기업가치 상승률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*미처분이익잉여금</t>
-  </si>
-  <si>
-    <t>*미처분이익잉여금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당해년도</t>
-  </si>
-  <si>
-    <t>당해년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(47세)</t>
-  </si>
-  <si>
-    <t>(47세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3년 후</t>
-  </si>
-  <si>
-    <t>3년 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(50세)</t>
-  </si>
-  <si>
-    <t>경기기간</t>
-  </si>
-  <si>
-    <t>5년 후</t>
-  </si>
-  <si>
-    <t>7년 후</t>
-  </si>
-  <si>
-    <t>10년 후</t>
-  </si>
-  <si>
-    <t>15년 후</t>
-  </si>
-  <si>
-    <t>20년 후</t>
-  </si>
-  <si>
-    <t>(대표이사 나이)</t>
-  </si>
-  <si>
-    <t>(52세)</t>
-  </si>
-  <si>
-    <t>(54세)</t>
-  </si>
-  <si>
-    <t>(57세)</t>
-  </si>
-  <si>
-    <t>(62세)</t>
-  </si>
-  <si>
-    <t>(67세)</t>
-  </si>
-  <si>
-    <t>순이익률(%)</t>
-  </si>
-  <si>
-    <t>47,777원</t>
-  </si>
-  <si>
-    <t>400,353원</t>
-  </si>
-  <si>
-    <t>1,407,493원</t>
-  </si>
-  <si>
-    <t>4,948,216원</t>
-  </si>
-  <si>
-    <t>32,617,635원</t>
-  </si>
-  <si>
-    <t>74,585,818원</t>
-  </si>
-  <si>
-    <t>200,758,890원</t>
-  </si>
-  <si>
-    <t>10,725원</t>
-  </si>
-  <si>
-    <t>139,864원</t>
-  </si>
-  <si>
-    <t>515,543원</t>
-  </si>
-  <si>
-    <t>1,836,291원</t>
-  </si>
-  <si>
-    <t>12,157,435원</t>
-  </si>
-  <si>
-    <t>39,085,196원</t>
-  </si>
-  <si>
-    <t>118,387,211원</t>
-  </si>
-  <si>
-    <r>
-      <t>1주당 주식가액</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF646FB8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1)</t>
-    </r>
-  </si>
-  <si>
-    <t>32,956원</t>
-  </si>
-  <si>
-    <t>296,157원</t>
-  </si>
-  <si>
-    <t>1,050,713원</t>
-  </si>
-  <si>
-    <t>3,703,446원</t>
-  </si>
-  <si>
-    <t>24,433,555원</t>
-  </si>
-  <si>
-    <t>60,358,569원</t>
-  </si>
-  <si>
-    <t>167,810,218원</t>
-  </si>
-  <si>
-    <t>19.77억</t>
-  </si>
-  <si>
-    <t>177.69억</t>
-  </si>
-  <si>
-    <t>630.43억</t>
-  </si>
-  <si>
-    <t>2222.07억</t>
-  </si>
-  <si>
-    <t>14660.13억</t>
-  </si>
-  <si>
-    <t>36231.34억</t>
-  </si>
-  <si>
-    <t>100686.13억</t>
-  </si>
-  <si>
-    <t>(대표이사 나이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5년 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7년 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10년 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15년 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20년 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,777원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,725원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,956원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.77억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(50세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,353원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>139,864원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>296,157원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>177.69억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(52세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,407,493원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>515,543원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,050,713원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>630.43억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(54세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,948,216원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,836,291원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,703,446원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2222.07억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(57세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,617,635원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,157,435원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,433,555원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14660.13억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(62세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74,585,818원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,085,196원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,358,569원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36231.34억</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(67세)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,758,890원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>118,387,211원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,810,218원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100686.13억</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,15 +467,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF646FB8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,18 +512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F5F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF1F1F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -772,37 +593,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF6D6FA3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF6D6FA3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,48 +639,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -899,10 +654,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,10 +669,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1277,13 +1032,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="24">
@@ -1305,10 +1060,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
@@ -1321,57 +1076,57 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
+      <c r="A4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
+      <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1382,16 +1137,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1402,15 +1157,15 @@
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="29">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15">
         <v>1111407</v>
       </c>
       <c r="E8">
@@ -1422,15 +1177,15 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="29">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15">
         <v>1452610</v>
       </c>
       <c r="E9">
@@ -1442,15 +1197,15 @@
     </row>
     <row r="10" spans="1:6" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="29">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15">
         <v>-341203</v>
       </c>
       <c r="E10">
@@ -1462,15 +1217,15 @@
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="29">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15">
         <v>-641203</v>
       </c>
       <c r="E11">
@@ -1482,15 +1237,15 @@
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="29">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15">
         <v>2330467</v>
       </c>
       <c r="E12">
@@ -1502,15 +1257,15 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="29">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15">
         <v>267761</v>
       </c>
       <c r="E13">
@@ -1522,15 +1277,15 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="30">
+        <v>19</v>
+      </c>
+      <c r="D14" s="16">
         <v>0.875</v>
       </c>
       <c r="E14">
@@ -1542,15 +1297,15 @@
     </row>
     <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="30">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
         <v>0.115</v>
       </c>
       <c r="E15">
@@ -1562,15 +1317,15 @@
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="29">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15">
         <v>35884</v>
       </c>
       <c r="E16">
@@ -1582,16 +1337,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
         <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,16 +1357,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1622,16 +1377,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1642,16 +1397,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,16 +1417,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,16 +1437,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
         <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1702,16 +1457,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,15 +1477,15 @@
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="29">
+        <v>14</v>
+      </c>
+      <c r="D24" s="15">
         <v>1613914</v>
       </c>
       <c r="E24">
@@ -1742,15 +1497,15 @@
     </row>
     <row r="25" spans="1:6" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="29">
+        <v>15</v>
+      </c>
+      <c r="D25" s="15">
         <v>1452610</v>
       </c>
       <c r="E25">
@@ -1762,15 +1517,15 @@
     </row>
     <row r="26" spans="1:6" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
         <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="29">
+        <v>16</v>
+      </c>
+      <c r="D26" s="15">
         <v>161304</v>
       </c>
       <c r="E26">
@@ -1782,15 +1537,15 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>2023</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="29">
+        <v>28</v>
+      </c>
+      <c r="D27" s="15">
         <v>-138696</v>
       </c>
       <c r="E27">
@@ -1802,15 +1557,15 @@
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>2023</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="29">
+        <v>17</v>
+      </c>
+      <c r="D28" s="15">
         <v>4369626</v>
       </c>
       <c r="E28">
@@ -1822,15 +1577,15 @@
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
         <v>2023</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="29">
+        <v>18</v>
+      </c>
+      <c r="D29" s="15">
         <v>502507</v>
       </c>
       <c r="E29">
@@ -1842,15 +1597,15 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>2023</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="30">
+        <v>19</v>
+      </c>
+      <c r="D30" s="16">
         <v>0.875</v>
       </c>
       <c r="E30">
@@ -1862,15 +1617,15 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <v>2023</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="30">
+        <v>20</v>
+      </c>
+      <c r="D31" s="16">
         <v>0.115</v>
       </c>
       <c r="E31">
@@ -1882,15 +1637,15 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
         <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="29">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15">
         <v>482197</v>
       </c>
       <c r="E32">
@@ -1902,16 +1657,16 @@
     </row>
     <row r="33" spans="1:6" ht="17.25" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
         <v>2023</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1922,16 +1677,16 @@
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
         <v>2023</v>
       </c>
       <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>107</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1942,16 +1697,16 @@
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
         <v>2023</v>
       </c>
       <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1962,16 +1717,16 @@
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1">
         <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1982,15 +1737,15 @@
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1">
         <v>2023</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="33">
+        <v>26</v>
+      </c>
+      <c r="D37" s="19">
         <v>-1</v>
       </c>
       <c r="E37">
@@ -2002,16 +1757,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1">
         <v>2026</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2022,16 +1777,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <v>2026</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>110</v>
+        <v>33</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2042,15 +1797,15 @@
     </row>
     <row r="40" spans="1:6" ht="17.25" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
         <v>2026</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="29">
+        <v>14</v>
+      </c>
+      <c r="D40" s="15">
         <v>7635164</v>
       </c>
       <c r="E40">
@@ -2062,15 +1817,15 @@
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
         <v>2026</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="29">
+        <v>15</v>
+      </c>
+      <c r="D41" s="15">
         <v>1452610</v>
       </c>
       <c r="E41">
@@ -2082,15 +1837,15 @@
     </row>
     <row r="42" spans="1:6" ht="17.25" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1">
         <v>2026</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="29">
+        <v>16</v>
+      </c>
+      <c r="D42" s="15">
         <v>6182554</v>
       </c>
       <c r="E42">
@@ -2102,15 +1857,15 @@
     </row>
     <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1">
         <v>2026</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="29">
+        <v>28</v>
+      </c>
+      <c r="D43" s="15">
         <v>5882554</v>
       </c>
       <c r="E43">
@@ -2122,15 +1877,15 @@
     </row>
     <row r="44" spans="1:6" ht="17.25" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <v>2026</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="29">
+        <v>17</v>
+      </c>
+      <c r="D44" s="15">
         <v>28803685</v>
       </c>
       <c r="E44">
@@ -2142,15 +1897,15 @@
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
         <v>2026</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="29">
+        <v>18</v>
+      </c>
+      <c r="D45" s="15">
         <v>3312424</v>
       </c>
       <c r="E45">
@@ -2162,15 +1917,15 @@
     </row>
     <row r="46" spans="1:6" ht="17.25" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1">
         <v>2026</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="30">
+        <v>19</v>
+      </c>
+      <c r="D46" s="16">
         <v>0.875</v>
       </c>
       <c r="E46">
@@ -2182,15 +1937,15 @@
     </row>
     <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1">
         <v>2026</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="30">
+        <v>20</v>
+      </c>
+      <c r="D47" s="16">
         <v>0.115</v>
       </c>
       <c r="E47">
@@ -2202,15 +1957,15 @@
     </row>
     <row r="48" spans="1:6" ht="17.25" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
         <v>2026</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="29">
+        <v>21</v>
+      </c>
+      <c r="D48" s="15">
         <v>2209297</v>
       </c>
       <c r="E48">
@@ -2222,16 +1977,16 @@
     </row>
     <row r="49" spans="1:6" ht="17.25" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <v>2026</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2242,16 +1997,16 @@
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <v>2026</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>112</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2262,16 +2017,16 @@
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
         <v>2026</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>113</v>
+        <v>24</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2282,16 +2037,16 @@
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
         <v>2026</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>114</v>
+        <v>25</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2302,15 +2057,15 @@
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1">
         <v>2026</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="33">
+        <v>26</v>
+      </c>
+      <c r="D53" s="19">
         <v>-1</v>
       </c>
       <c r="E53">
@@ -2322,16 +2077,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1">
         <v>2028</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>101</v>
+        <v>11</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2342,16 +2097,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1">
         <v>2028</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2362,15 +2117,15 @@
     </row>
     <row r="56" spans="1:6" ht="17.25" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1">
         <v>2028</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="29">
+        <v>14</v>
+      </c>
+      <c r="D56" s="15">
         <v>25491198</v>
       </c>
       <c r="E56">
@@ -2382,15 +2137,15 @@
     </row>
     <row r="57" spans="1:6" ht="17.25" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1">
         <v>2028</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="29">
+        <v>15</v>
+      </c>
+      <c r="D57" s="15">
         <v>1452610</v>
       </c>
       <c r="E57">
@@ -2402,15 +2157,15 @@
     </row>
     <row r="58" spans="1:6" ht="17.25" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
         <v>2028</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="29">
+        <v>16</v>
+      </c>
+      <c r="D58" s="15">
         <v>24038588</v>
       </c>
       <c r="E58">
@@ -2422,15 +2177,15 @@
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
         <v>2028</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="29">
+        <v>28</v>
+      </c>
+      <c r="D59" s="15">
         <v>23738588</v>
       </c>
       <c r="E59">
@@ -2442,15 +2197,15 @@
     </row>
     <row r="60" spans="1:6" ht="17.25" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1">
         <v>2028</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="29">
+        <v>17</v>
+      </c>
+      <c r="D60" s="15">
         <v>101262953</v>
       </c>
       <c r="E60">
@@ -2462,15 +2217,15 @@
     </row>
     <row r="61" spans="1:6" ht="17.25" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1">
         <v>2028</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="29">
+        <v>18</v>
+      </c>
+      <c r="D61" s="15">
         <v>11645240</v>
       </c>
       <c r="E61">
@@ -2482,15 +2237,15 @@
     </row>
     <row r="62" spans="1:6" ht="17.25" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1">
         <v>2028</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="30">
+        <v>19</v>
+      </c>
+      <c r="D62" s="16">
         <v>0.875</v>
       </c>
       <c r="E62">
@@ -2502,15 +2257,15 @@
     </row>
     <row r="63" spans="1:6" ht="17.25" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1">
         <v>2028</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="30">
+        <v>20</v>
+      </c>
+      <c r="D63" s="16">
         <v>0.115</v>
       </c>
       <c r="E63">
@@ -2522,15 +2277,15 @@
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1">
         <v>2028</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="29">
+        <v>21</v>
+      </c>
+      <c r="D64" s="15">
         <v>6894020</v>
       </c>
       <c r="E64">
@@ -2542,16 +2297,16 @@
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1">
         <v>2028</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>116</v>
+        <v>22</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2562,16 +2317,16 @@
     </row>
     <row r="66" spans="1:6" ht="17.25" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1">
         <v>2028</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2582,16 +2337,16 @@
     </row>
     <row r="67" spans="1:6" ht="17.25" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1">
         <v>2028</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2602,16 +2357,16 @@
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68" s="1">
         <v>2028</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>119</v>
+        <v>25</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2622,15 +2377,15 @@
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1">
         <v>2028</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="33">
+        <v>26</v>
+      </c>
+      <c r="D69" s="19">
         <v>-1</v>
       </c>
       <c r="E69">
@@ -2642,16 +2397,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1">
         <v>2030</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>102</v>
+        <v>11</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2662,16 +2417,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1">
         <v>2030</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>120</v>
+        <v>33</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2682,15 +2437,15 @@
     </row>
     <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1">
         <v>2030</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="29">
+        <v>14</v>
+      </c>
+      <c r="D72" s="15">
         <v>88266318</v>
       </c>
       <c r="E72">
@@ -2702,15 +2457,15 @@
     </row>
     <row r="73" spans="1:6" ht="17.25" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1">
         <v>2030</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="29">
+        <v>15</v>
+      </c>
+      <c r="D73" s="15">
         <v>1452610</v>
       </c>
       <c r="E73">
@@ -2722,15 +2477,15 @@
     </row>
     <row r="74" spans="1:6" ht="17.25" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1">
         <v>2030</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="29">
+        <v>16</v>
+      </c>
+      <c r="D74" s="15">
         <v>86813708</v>
       </c>
       <c r="E74">
@@ -2742,15 +2497,15 @@
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1">
         <v>2030</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="29">
+        <v>28</v>
+      </c>
+      <c r="D75" s="15">
         <v>86513708</v>
       </c>
       <c r="E75">
@@ -2762,15 +2517,15 @@
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1">
         <v>2030</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="29">
+        <v>17</v>
+      </c>
+      <c r="D76" s="15">
         <v>356002571</v>
       </c>
       <c r="E76">
@@ -2782,15 +2537,15 @@
     </row>
     <row r="77" spans="1:6" ht="17.25" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1">
         <v>2030</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="29">
+        <v>18</v>
+      </c>
+      <c r="D77" s="15">
         <v>40940296</v>
       </c>
       <c r="E77">
@@ -2802,15 +2557,15 @@
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78" s="1">
         <v>2030</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="30">
+        <v>19</v>
+      </c>
+      <c r="D78" s="16">
         <v>0.875</v>
       </c>
       <c r="E78">
@@ -2822,15 +2577,15 @@
     </row>
     <row r="79" spans="1:6" ht="17.25" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1">
         <v>2030</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="30">
+        <v>20</v>
+      </c>
+      <c r="D79" s="16">
         <v>0.115</v>
       </c>
       <c r="E79">
@@ -2842,15 +2597,15 @@
     </row>
     <row r="80" spans="1:6" ht="17.25" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1">
         <v>2030</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="29">
+        <v>21</v>
+      </c>
+      <c r="D80" s="15">
         <v>23363751</v>
       </c>
       <c r="E80">
@@ -2862,16 +2617,16 @@
     </row>
     <row r="81" spans="1:6" ht="17.25" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B81" s="1">
         <v>2030</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>121</v>
+        <v>22</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2882,16 +2637,16 @@
     </row>
     <row r="82" spans="1:6" ht="17.25" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1">
         <v>2030</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>122</v>
+        <v>23</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2902,16 +2657,16 @@
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1">
         <v>2030</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2922,16 +2677,16 @@
     </row>
     <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1">
         <v>2030</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2942,15 +2697,15 @@
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
         <v>2030</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" s="33">
+        <v>26</v>
+      </c>
+      <c r="D85" s="19">
         <v>-1</v>
       </c>
       <c r="E85">
@@ -2962,16 +2717,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86" s="1">
         <v>2033</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2982,16 +2737,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1">
         <v>2033</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>125</v>
+        <v>33</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3002,15 +2757,15 @@
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1">
         <v>2033</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="29">
+        <v>14</v>
+      </c>
+      <c r="D88" s="15">
         <v>578830212</v>
       </c>
       <c r="E88">
@@ -3022,15 +2777,15 @@
     </row>
     <row r="89" spans="1:6" ht="17.25" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1">
         <v>2033</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="29">
+        <v>15</v>
+      </c>
+      <c r="D89" s="15">
         <v>1452610</v>
       </c>
       <c r="E89">
@@ -3042,15 +2797,15 @@
     </row>
     <row r="90" spans="1:6" ht="17.25" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90" s="1">
         <v>2033</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="29">
+        <v>16</v>
+      </c>
+      <c r="D90" s="15">
         <v>577377602</v>
       </c>
       <c r="E90">
@@ -3062,15 +2817,15 @@
     </row>
     <row r="91" spans="1:6" ht="17.25" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B91" s="1">
         <v>2033</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="29">
+        <v>28</v>
+      </c>
+      <c r="D91" s="15">
         <v>577077602</v>
       </c>
       <c r="E91">
@@ -3082,15 +2837,15 @@
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1">
         <v>2033</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="29">
+        <v>17</v>
+      </c>
+      <c r="D92" s="15">
         <v>2346696633</v>
       </c>
       <c r="E92">
@@ -3102,15 +2857,15 @@
     </row>
     <row r="93" spans="1:6" ht="17.25" thickBot="1">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1">
         <v>2033</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="29">
+        <v>18</v>
+      </c>
+      <c r="D93" s="15">
         <v>269870113</v>
       </c>
       <c r="E93">
@@ -3122,15 +2877,15 @@
     </row>
     <row r="94" spans="1:6" ht="17.25" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B94" s="1">
         <v>2033</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="30">
+        <v>19</v>
+      </c>
+      <c r="D94" s="16">
         <v>0.875</v>
       </c>
       <c r="E94">
@@ -3142,15 +2897,15 @@
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1">
       <c r="A95" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B95" s="1">
         <v>2033</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="30">
+        <v>20</v>
+      </c>
+      <c r="D95" s="16">
         <v>0.115</v>
       </c>
       <c r="E95">
@@ -3162,15 +2917,15 @@
     </row>
     <row r="96" spans="1:6" ht="17.25" thickBot="1">
       <c r="A96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B96" s="1">
         <v>2033</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="29">
+        <v>21</v>
+      </c>
+      <c r="D96" s="15">
         <v>152068487</v>
       </c>
       <c r="E96">
@@ -3182,16 +2937,16 @@
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1">
       <c r="A97" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1">
         <v>2033</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="31" t="s">
-        <v>126</v>
+        <v>22</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3202,16 +2957,16 @@
     </row>
     <row r="98" spans="1:6" ht="17.25" thickBot="1">
       <c r="A98" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B98" s="1">
         <v>2033</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>127</v>
+        <v>23</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3222,16 +2977,16 @@
     </row>
     <row r="99" spans="1:6" ht="17.25" thickBot="1">
       <c r="A99" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1">
         <v>2033</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
-      </c>
-      <c r="D99" s="32" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3242,16 +2997,16 @@
     </row>
     <row r="100" spans="1:6" ht="17.25" thickBot="1">
       <c r="A100" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B100" s="1">
         <v>2033</v>
       </c>
       <c r="C100" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3262,15 +3017,15 @@
     </row>
     <row r="101" spans="1:6" ht="17.25" thickBot="1">
       <c r="A101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B101" s="1">
         <v>2033</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
-      </c>
-      <c r="D101" s="33">
+        <v>26</v>
+      </c>
+      <c r="D101" s="19">
         <v>-1</v>
       </c>
       <c r="E101">
@@ -3282,16 +3037,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B102" s="1">
         <v>2038</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>104</v>
+        <v>11</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3302,16 +3057,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1">
         <v>2038</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>130</v>
+        <v>33</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3322,15 +3077,15 @@
     </row>
     <row r="104" spans="1:6" ht="17.25" thickBot="1">
       <c r="A104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1">
         <v>2038</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="29">
+        <v>14</v>
+      </c>
+      <c r="D104" s="15">
         <v>2346564343</v>
       </c>
       <c r="E104">
@@ -3342,15 +3097,15 @@
     </row>
     <row r="105" spans="1:6" ht="17.25" thickBot="1">
       <c r="A105" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1">
         <v>2038</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="29">
+        <v>15</v>
+      </c>
+      <c r="D105" s="15">
         <v>1452610</v>
       </c>
       <c r="E105">
@@ -3362,15 +3117,15 @@
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1">
       <c r="A106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1">
         <v>2038</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="29">
+        <v>16</v>
+      </c>
+      <c r="D106" s="15">
         <v>2345111733</v>
       </c>
       <c r="E106">
@@ -3382,15 +3137,15 @@
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1">
       <c r="A107" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1">
         <v>2038</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="29">
+        <v>28</v>
+      </c>
+      <c r="D107" s="15">
         <v>2344811733</v>
       </c>
       <c r="E107">
@@ -3402,15 +3157,15 @@
     </row>
     <row r="108" spans="1:6" ht="17.25" thickBot="1">
       <c r="A108" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1">
         <v>2038</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D108" s="29">
+        <v>17</v>
+      </c>
+      <c r="D108" s="15">
         <v>6316485135</v>
       </c>
       <c r="E108">
@@ -3422,15 +3177,15 @@
     </row>
     <row r="109" spans="1:6" ht="17.25" thickBot="1">
       <c r="A109" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1">
         <v>2038</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" s="29">
+        <v>18</v>
+      </c>
+      <c r="D109" s="15">
         <v>505318811</v>
       </c>
       <c r="E109">
@@ -3442,15 +3197,15 @@
     </row>
     <row r="110" spans="1:6" ht="17.25" thickBot="1">
       <c r="A110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1">
         <v>2038</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
-      </c>
-      <c r="D110" s="30">
+        <v>19</v>
+      </c>
+      <c r="D110" s="16">
         <v>0.219</v>
       </c>
       <c r="E110">
@@ -3462,15 +3217,15 @@
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1">
       <c r="A111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
         <v>2038</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="30">
+        <v>20</v>
+      </c>
+      <c r="D111" s="16">
         <v>0.08</v>
       </c>
       <c r="E111">
@@ -3482,16 +3237,16 @@
     </row>
     <row r="112" spans="1:6" ht="17.25" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1">
         <v>2038</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3502,16 +3257,16 @@
     </row>
     <row r="113" spans="1:6" ht="17.25" thickBot="1">
       <c r="A113" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B113" s="1">
         <v>2038</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>131</v>
+        <v>22</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3522,16 +3277,16 @@
     </row>
     <row r="114" spans="1:6" ht="17.25" thickBot="1">
       <c r="A114" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B114" s="1">
         <v>2038</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3542,16 +3297,16 @@
     </row>
     <row r="115" spans="1:6" ht="17.25" thickBot="1">
       <c r="A115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
         <v>2038</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>133</v>
+        <v>24</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3562,16 +3317,16 @@
     </row>
     <row r="116" spans="1:6" ht="17.25" thickBot="1">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1">
         <v>2038</v>
       </c>
       <c r="C116" t="s">
-        <v>43</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>134</v>
+        <v>25</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3582,15 +3337,15 @@
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B117" s="1">
         <v>2038</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
-      </c>
-      <c r="D117" s="33">
+        <v>26</v>
+      </c>
+      <c r="D117" s="19">
         <v>-1</v>
       </c>
       <c r="E117">
@@ -3602,16 +3357,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1">
         <v>2043</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3622,16 +3377,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B119" s="1">
         <v>2043</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>135</v>
+        <v>33</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3642,15 +3397,15 @@
     </row>
     <row r="120" spans="1:6" ht="17.25" thickBot="1">
       <c r="A120" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1">
         <v>2043</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="34">
+        <v>14</v>
+      </c>
+      <c r="D120" s="20">
         <v>7104685269</v>
       </c>
       <c r="E120">
@@ -3662,15 +3417,15 @@
     </row>
     <row r="121" spans="1:6" ht="17.25" thickBot="1">
       <c r="A121" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
         <v>2043</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="34">
+        <v>15</v>
+      </c>
+      <c r="D121" s="20">
         <v>1452610</v>
       </c>
       <c r="E121">
@@ -3682,15 +3437,15 @@
     </row>
     <row r="122" spans="1:6" ht="17.25" thickBot="1">
       <c r="A122" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B122" s="1">
         <v>2043</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="34">
+        <v>16</v>
+      </c>
+      <c r="D122" s="20">
         <v>7103232659</v>
       </c>
       <c r="E122">
@@ -3702,15 +3457,15 @@
     </row>
     <row r="123" spans="1:6" ht="17.25" thickBot="1">
       <c r="A123" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B123" s="1">
         <v>2043</v>
       </c>
       <c r="C123" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="34">
+        <v>28</v>
+      </c>
+      <c r="D123" s="20">
         <v>7102932659</v>
       </c>
       <c r="E123">
@@ -3722,15 +3477,15 @@
     </row>
     <row r="124" spans="1:6" ht="17.25" thickBot="1">
       <c r="A124" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B124" s="1">
         <v>2043</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124" s="34">
+        <v>17</v>
+      </c>
+      <c r="D124" s="20">
         <v>17001764901</v>
       </c>
       <c r="E124">
@@ -3742,15 +3497,15 @@
     </row>
     <row r="125" spans="1:6" ht="17.25" thickBot="1">
       <c r="A125" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1">
         <v>2043</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
-      </c>
-      <c r="D125" s="34">
+        <v>18</v>
+      </c>
+      <c r="D125" s="20">
         <v>1360141192</v>
       </c>
       <c r="E125">
@@ -3762,15 +3517,15 @@
     </row>
     <row r="126" spans="1:6" ht="17.25" thickBot="1">
       <c r="A126" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1">
         <v>2043</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" s="35">
+        <v>19</v>
+      </c>
+      <c r="D126" s="21">
         <v>0.219</v>
       </c>
       <c r="E126">
@@ -3782,15 +3537,15 @@
     </row>
     <row r="127" spans="1:6" ht="17.25" thickBot="1">
       <c r="A127" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B127" s="1">
         <v>2043</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="35">
+        <v>20</v>
+      </c>
+      <c r="D127" s="21">
         <v>0.08</v>
       </c>
       <c r="E127">
@@ -3802,16 +3557,16 @@
     </row>
     <row r="128" spans="1:6" ht="17.25" thickBot="1">
       <c r="A128" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1">
         <v>2043</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
-      </c>
-      <c r="D128" s="36" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3822,16 +3577,16 @@
     </row>
     <row r="129" spans="1:6" ht="17.25" thickBot="1">
       <c r="A129" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1">
         <v>2043</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
-      </c>
-      <c r="D129" s="36" t="s">
-        <v>136</v>
+        <v>22</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3842,16 +3597,16 @@
     </row>
     <row r="130" spans="1:6" ht="17.25" thickBot="1">
       <c r="A130" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B130" s="1">
         <v>2043</v>
       </c>
       <c r="C130" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="36" t="s">
-        <v>137</v>
+        <v>23</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3862,16 +3617,16 @@
     </row>
     <row r="131" spans="1:6" ht="17.25" thickBot="1">
       <c r="A131" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B131" s="1">
         <v>2043</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
-      </c>
-      <c r="D131" s="37" t="s">
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3882,16 +3637,16 @@
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1">
       <c r="A132" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1">
         <v>2043</v>
       </c>
       <c r="C132" t="s">
-        <v>43</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>139</v>
+        <v>25</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3902,15 +3657,15 @@
     </row>
     <row r="133" spans="1:6" ht="17.25" thickBot="1">
       <c r="A133" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1">
         <v>2043</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
-      </c>
-      <c r="D133" s="38">
+        <v>26</v>
+      </c>
+      <c r="D133" s="24">
         <v>-1</v>
       </c>
       <c r="E133">
@@ -3927,492 +3682,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C562E6-D16F-44D1-8D09-27338666101C}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1111407</v>
-      </c>
-      <c r="C3" s="16">
-        <v>1613914</v>
-      </c>
-      <c r="D3" s="16">
-        <v>7635164</v>
-      </c>
-      <c r="E3" s="16">
-        <v>25491198</v>
-      </c>
-      <c r="F3" s="16">
-        <v>88266318</v>
-      </c>
-      <c r="G3" s="16">
-        <v>578830212</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2346564343</v>
-      </c>
-      <c r="I3" s="17">
-        <v>7104685269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1452610</v>
-      </c>
-      <c r="I4" s="17">
-        <v>1452610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="16">
-        <v>-341203</v>
-      </c>
-      <c r="C5" s="16">
-        <v>161304</v>
-      </c>
-      <c r="D5" s="16">
-        <v>6182554</v>
-      </c>
-      <c r="E5" s="16">
-        <v>24038588</v>
-      </c>
-      <c r="F5" s="16">
-        <v>86813708</v>
-      </c>
-      <c r="G5" s="16">
-        <v>577377602</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2345111733</v>
-      </c>
-      <c r="I5" s="17">
-        <v>7103232659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="16">
-        <v>-641203</v>
-      </c>
-      <c r="C6" s="16">
-        <v>-138696</v>
-      </c>
-      <c r="D6" s="16">
-        <v>5882554</v>
-      </c>
-      <c r="E6" s="16">
-        <v>23738588</v>
-      </c>
-      <c r="F6" s="16">
-        <v>86513708</v>
-      </c>
-      <c r="G6" s="16">
-        <v>577077602</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2344811733</v>
-      </c>
-      <c r="I6" s="17">
-        <v>7102932659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="16">
-        <v>2330467</v>
-      </c>
-      <c r="C7" s="16">
-        <v>4369626</v>
-      </c>
-      <c r="D7" s="16">
-        <v>28803685</v>
-      </c>
-      <c r="E7" s="16">
-        <v>101262953</v>
-      </c>
-      <c r="F7" s="16">
-        <v>356002571</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2346696633</v>
-      </c>
-      <c r="H7" s="16">
-        <v>6316485135</v>
-      </c>
-      <c r="I7" s="17">
-        <v>17001764901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="16">
-        <v>267761</v>
-      </c>
-      <c r="C8" s="16">
-        <v>502507</v>
-      </c>
-      <c r="D8" s="16">
-        <v>3312424</v>
-      </c>
-      <c r="E8" s="16">
-        <v>11645240</v>
-      </c>
-      <c r="F8" s="16">
-        <v>40940296</v>
-      </c>
-      <c r="G8" s="16">
-        <v>269870113</v>
-      </c>
-      <c r="H8" s="16">
-        <v>505318811</v>
-      </c>
-      <c r="I8" s="17">
-        <v>1360141192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.219</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0.219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0.115</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.115</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.115</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.115</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.115</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.115</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="16">
-        <v>35884</v>
-      </c>
-      <c r="C11" s="16">
-        <v>482197</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2209297</v>
-      </c>
-      <c r="E11" s="16">
-        <v>6894020</v>
-      </c>
-      <c r="F11" s="16">
-        <v>23363751</v>
-      </c>
-      <c r="G11" s="16">
-        <v>152068487</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="31.5" thickBot="1">
-      <c r="A14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="24">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>